--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Documents\Orcinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96F636F-FF9A-4C7D-8A13-4C649981B9D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C57FAD-557C-4381-ADE6-93ED6041F110}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Orcinus Inventory</t>
   </si>
@@ -66,18 +66,12 @@
     <t>Theory Lab in black boxes</t>
   </si>
   <si>
-    <t>4 GB SPS-DIMM PC2-5300,256MX4 Memory</t>
-  </si>
-  <si>
     <t>Theory Lab in clear plastic box</t>
   </si>
   <si>
     <t>500 GB SATA 7200 RPM HP HDD</t>
   </si>
   <si>
-    <t>Theory Lab - Cordboard boxes</t>
-  </si>
-  <si>
     <t>450 GB SAS 15K RPM Dell HDD</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t>Theory Lab Pink Styrofoam box</t>
   </si>
   <si>
-    <t>Server room on mobile desk</t>
-  </si>
-  <si>
     <t>Theory Lab under desk</t>
   </si>
   <si>
@@ -174,13 +165,85 @@
     <t>HP Proliant BL2x200c G6 A blade</t>
   </si>
   <si>
-    <t>New Style Server A and B Blades, look relatively unused, contain 4 heat sinks.</t>
-  </si>
-  <si>
     <t>New Style Server A blades, unwrapped</t>
   </si>
   <si>
     <t>HP Proliant BL2x200c G5 A blade</t>
+  </si>
+  <si>
+    <t>Theory Lab in labelled boxes</t>
+  </si>
+  <si>
+    <t>Server room, back right corner</t>
+  </si>
+  <si>
+    <t>Old Style Server A and B blades, used.</t>
+  </si>
+  <si>
+    <t>HP Proliant BL2x200c G5 full blade (may contain additional hardware)</t>
+  </si>
+  <si>
+    <t>New Style Server A and B Blades, ones in theory lab look relatively unused, contain 4 heat sinks.</t>
+  </si>
+  <si>
+    <t>Theory Lab (3x), server room back right corner (1x)</t>
+  </si>
+  <si>
+    <t>4 TB SAS 7200 RPM HDD</t>
+  </si>
+  <si>
+    <t>SPS Main Fan for MCS-G2 enclosure (product number 463362-001)</t>
+  </si>
+  <si>
+    <t>Server room, back left corner</t>
+  </si>
+  <si>
+    <t>Used?</t>
+  </si>
+  <si>
+    <t>New?</t>
+  </si>
+  <si>
+    <t>4 GB SPS-DIMM PC2-5300, 256MX4 Memory</t>
+  </si>
+  <si>
+    <t>DDN Storage Array enclosure (model SS6000)</t>
+  </si>
+  <si>
+    <t>DDN SFA10000 with 3x storage cards</t>
+  </si>
+  <si>
+    <t>Used, likely faulty (power issue)</t>
+  </si>
+  <si>
+    <t>CMC-TC Basic CMC (part number 0404318)</t>
+  </si>
+  <si>
+    <t>Used, main controller for MCS enclosures (white box in front left panel)</t>
+  </si>
+  <si>
+    <t>HP onboard administator module</t>
+  </si>
+  <si>
+    <t>Theory lab, unboxed</t>
+  </si>
+  <si>
+    <t>Spare Fan module</t>
+  </si>
+  <si>
+    <t>IT Room</t>
+  </si>
+  <si>
+    <t>Used, one has blown fuse</t>
+  </si>
+  <si>
+    <t>Random assortment of storage disks</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Used faulty discs, some may be recoverable</t>
   </si>
 </sst>
 </file>
@@ -551,18 +614,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4488E0-15B5-48AC-BD83-4630A661A86F}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,14 +649,14 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <f>7*3</f>
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -601,13 +664,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -615,13 +678,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -629,55 +692,55 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -685,41 +748,41 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -727,122 +790,254 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Documents\Orcinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C57FAD-557C-4381-ADE6-93ED6041F110}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50D2F4-66B6-4782-9CE1-48C5BA785D3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
   </bookViews>
@@ -276,12 +276,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,10 +302,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +624,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,101 +655,101 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <f>7*3</f>
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -933,7 +940,7 @@
         <v>43</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -947,7 +954,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -1003,7 +1010,7 @@
         <v>63</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Documents\Orcinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50D2F4-66B6-4782-9CE1-48C5BA785D3E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081DD17-C34B-41EB-8D30-8FA96DE903F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Orcinus Inventory</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>Used faulty discs, some may be recoverable</t>
+  </si>
+  <si>
+    <t>HP BLC 4X QDR IB Switch</t>
+  </si>
+  <si>
+    <t>Server room, back left corner in a box</t>
+  </si>
+  <si>
+    <t>Likely Used</t>
   </si>
 </sst>
 </file>
@@ -621,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4488E0-15B5-48AC-BD83-4630A661A86F}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,6 +1056,20 @@
         <v>70</v>
       </c>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Documents\Orcinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081DD17-C34B-41EB-8D30-8FA96DE903F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E211E281-AC46-4B0A-BB74-952C12E84EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -225,9 +227,6 @@
     <t>HP onboard administator module</t>
   </si>
   <si>
-    <t>Theory lab, unboxed</t>
-  </si>
-  <si>
     <t>Spare Fan module</t>
   </si>
   <si>
@@ -253,6 +252,9 @@
   </si>
   <si>
     <t>Likely Used</t>
+  </si>
+  <si>
+    <t>Theory lab, boxed</t>
   </si>
 </sst>
 </file>
@@ -632,24 +634,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4488E0-15B5-48AC-BD83-4630A661A86F}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="3" max="3" width="46.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -663,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -678,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -692,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -706,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -720,7 +722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -734,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -748,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -762,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -776,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -790,7 +792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -804,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -818,7 +820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -832,7 +834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -846,7 +848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -860,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -874,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -888,7 +890,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -902,7 +904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -916,7 +918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -930,7 +932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -944,7 +946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -958,7 +960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -972,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -986,7 +988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1014,60 +1016,60 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
         <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Documents\Orcinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E211E281-AC46-4B0A-BB74-952C12E84EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903B6AD-69C3-489A-9200-562FC637DB08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>Orcinus Inventory</t>
   </si>
@@ -161,15 +159,9 @@
     <t>Old Style A blades, in boxes (except 1)</t>
   </si>
   <si>
-    <t>New Style Server B blades, 2 in large boxes, 2 unwrapped</t>
-  </si>
-  <si>
     <t>HP Proliant BL2x200c G6 A blade</t>
   </si>
   <si>
-    <t>New Style Server A blades, unwrapped</t>
-  </si>
-  <si>
     <t>HP Proliant BL2x200c G5 A blade</t>
   </si>
   <si>
@@ -188,9 +180,6 @@
     <t>New Style Server A and B Blades, ones in theory lab look relatively unused, contain 4 heat sinks.</t>
   </si>
   <si>
-    <t>Theory Lab (3x), server room back right corner (1x)</t>
-  </si>
-  <si>
     <t>4 TB SAS 7200 RPM HDD</t>
   </si>
   <si>
@@ -255,6 +244,21 @@
   </si>
   <si>
     <t>Theory lab, boxed</t>
+  </si>
+  <si>
+    <t>Note: replace blades on chassis 16 and 10 LAST</t>
+  </si>
+  <si>
+    <t>Theory lab</t>
+  </si>
+  <si>
+    <t>server room back right corner</t>
+  </si>
+  <si>
+    <t>New Style Server B blades in the large box, one may be faulty</t>
+  </si>
+  <si>
+    <t>New Style Server A blades, from pod21a10</t>
   </si>
 </sst>
 </file>
@@ -632,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4488E0-15B5-48AC-BD83-4630A661A86F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -688,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -696,13 +700,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -716,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -822,7 +826,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -831,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -845,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -878,35 +882,35 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -937,27 +941,27 @@
         <v>34</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -971,18 +975,18 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -990,41 +994,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -1032,44 +1036,49 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Documents\Orcinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903B6AD-69C3-489A-9200-562FC637DB08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1B0ECD-49EE-4AFE-BFFB-5385E73D6BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
+    <workbookView xWindow="1275" yWindow="2460" windowWidth="21600" windowHeight="11423" xr2:uid="{E8B8B465-02C2-405B-95CA-32F45BF1045B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>Orcinus Inventory</t>
   </si>
@@ -244,9 +246,6 @@
   </si>
   <si>
     <t>Theory lab, boxed</t>
-  </si>
-  <si>
-    <t>Note: replace blades on chassis 16 and 10 LAST</t>
   </si>
   <si>
     <t>Theory lab</t>
@@ -636,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4488E0-15B5-48AC-BD83-4630A661A86F}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -944,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -961,7 +960,7 @@
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -975,7 +974,7 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -1042,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -1074,11 +1073,6 @@
       </c>
       <c r="D32" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
